--- a/Scripts/DBC Files.xlsx
+++ b/Scripts/DBC Files.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\ChromieCraft_3.3.5a\Custom Tools\Zeppelin-Core\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{63B17F3E-C441-4797-A45B-CD1CDE69E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958F791C-7B93-48D2-B233-8CFBAC334D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="12660" windowWidth="23040" windowHeight="12660"/>
+    <workbookView xWindow="23028" yWindow="12660" windowWidth="23052" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBC Files" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
   <si>
     <t>DBC</t>
   </si>
@@ -290,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -789,11 +806,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -844,15 +858,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,22 +882,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K73" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K73" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:K73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="DBC"/>
-    <tableColumn id="2" name="Open Azeroth_x000a_(Patch-5)" dataDxfId="2"/>
-    <tableColumn id="3" name="HD Characters_x000a_(Patch-6)"/>
-    <tableColumn id="4" name="HD Login_x000a_(PATCH-C)"/>
-    <tableColumn id="5" name="Fog Distance_x000a_(PATCH-D)"/>
-    <tableColumn id="6" name="HD Water _x000a_(PATCH-W)"/>
-    <tableColumn id="7" name="Worgoblin _x000a_(Patch-G)"/>
-    <tableColumn id="8" name="Custom DBC_x000a_(Patch-Z)"/>
-    <tableColumn id="9" name="Source" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DBC"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Open Azeroth_x000a_(Patch-5)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="HD Characters_x000a_(Patch-6)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="HD Login_x000a_(PATCH-C)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fog Distance_x000a_(PATCH-D)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="HD Water _x000a_(PATCH-W)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Worgoblin _x000a_(Patch-G)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Custom DBC_x000a_(Patch-Z)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source" dataDxfId="0">
       <calculatedColumnFormula>IF(B2="x",$B$1,IF(C2="x",$C$1,IF(D2="x",$D$1,IF(E2="x",$E$1,IF(F2="x",$F$1,IF(G2="x",$G$1,IF(H2="x",$H$1,"???")))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="DBC DATABASE BACKUP"/>
-    <tableColumn id="11" name="Notes"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DBC DATABASE BACKUP"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,17 +1199,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -1211,7 +1225,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1319,10 +1333,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="1" t="str">
@@ -1332,10 +1346,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="str">
@@ -1345,7 +1359,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
@@ -1364,7 +1378,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
@@ -1383,7 +1397,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
@@ -1399,7 +1413,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1421,7 +1435,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
@@ -1440,7 +1454,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -1468,6 +1482,9 @@
       <c r="G14" t="s">
         <v>8</v>
       </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Worgoblin 
@@ -1478,7 +1495,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
@@ -1614,10 +1631,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="1" t="str">
@@ -1627,10 +1644,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="1" t="str">
@@ -1694,10 +1711,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="1" t="str">
@@ -1707,10 +1724,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="1" t="str">
@@ -1838,10 +1855,10 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="1" t="str">
@@ -1905,10 +1922,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="1" t="str">
@@ -2102,10 +2119,10 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="1" t="str">
@@ -2118,7 +2135,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="G52" t="s">
@@ -2140,10 +2157,10 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="1" t="str">
@@ -2392,10 +2409,10 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="1" t="str">
@@ -2405,10 +2422,10 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="1" t="str">
@@ -2418,10 +2435,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="1" t="str">
@@ -2431,10 +2448,10 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="I71" s="1" t="str">
@@ -2444,10 +2461,10 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="1" t="str">
@@ -2457,10 +2474,10 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="I73" s="1" t="str">
@@ -2471,8 +2488,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Scripts/DBC Files.xlsx
+++ b/Scripts/DBC Files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\ChromieCraft_3.3.5a\Custom Tools\Zeppelin-Core\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958F791C-7B93-48D2-B233-8CFBAC334D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0340EA9A-898B-4E22-8BC2-E3FF351569C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23028" yWindow="12660" windowWidth="23052" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2964" windowWidth="29220" windowHeight="16224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBC Files" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="87">
   <si>
     <t>DBC</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Does not work in spell editor, keep a manual copy in Spell editor export for patch building</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,19 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -806,8 +797,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -855,6 +845,7 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -894,7 +885,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Worgoblin _x000a_(Patch-G)"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Custom DBC_x000a_(Patch-Z)"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source" dataDxfId="0">
-      <calculatedColumnFormula>IF(B2="x",$B$1,IF(C2="x",$C$1,IF(D2="x",$D$1,IF(E2="x",$E$1,IF(F2="x",$F$1,IF(G2="x",$G$1,IF(H2="x",$H$1,"???")))))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(H2="x",$H$1,IF(G2="x",$G$1,IF(F2="x",$F$1,IF(E2="x",$E$1,IF(D2="x",$D$1,IF(C2="x",$C$1,IF(B2="x",$B$1,"???")))))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DBC DATABASE BACKUP"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes"/>
@@ -1203,7 +1194,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,7 +1209,7 @@
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1257,7 +1248,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
@@ -1267,153 +1258,153 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF(B2="x",$B$1,IF(C2="x",$C$1,IF(D2="x",$D$1,IF(E2="x",$E$1,IF(F2="x",$F$1,IF(G2="x",$G$1,IF(H2="x",$H$1,"???")))))))</f>
+        <f t="shared" ref="I2:I33" si="0">IF(H2="x",$H$1,IF(G2="x",$G$1,IF(F2="x",$F$1,IF(E2="x",$E$1,IF(D2="x",$D$1,IF(C2="x",$C$1,IF(B2="x",$B$1,"???")))))))</f>
+        <v>Custom DBC
+(Patch-Z)</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Custom DBC
+(Patch-Z)</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Custom DBC
+(Patch-Z)</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Custom DBC
+(Patch-Z)</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Open Azeroth
+(Patch-5)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Open Azeroth
+(Patch-5)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Custom DBC
+(Patch-Z)</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Worgoblin 
 (Patch-G)</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I66" si="0">IF(B3="x",$B$1,IF(C3="x",$C$1,IF(D3="x",$D$1,IF(E3="x",$E$1,IF(F3="x",$F$1,IF(G3="x",$G$1,IF(H3="x",$H$1,"???")))))))</f>
-        <v>Custom DBC
-(Patch-Z)</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="str">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Worgoblin 
 (Patch-G)</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Open Azeroth
-(Patch-5)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Open Azeroth
-(Patch-5)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
-      </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1427,15 +1418,15 @@
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
@@ -1446,15 +1437,15 @@
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -1468,15 +1459,18 @@
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J13" t="s">
         <v>8</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
@@ -1487,15 +1481,15 @@
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
@@ -1506,15 +1500,15 @@
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
@@ -1528,15 +1522,15 @@
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -1550,8 +1544,8 @@
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J17" t="s">
         <v>8</v>
@@ -1588,8 +1582,8 @@
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J19" t="s">
         <v>8</v>
@@ -1607,8 +1601,8 @@
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J20" t="s">
         <v>8</v>
@@ -1631,7 +1625,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
@@ -1644,7 +1638,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -1684,8 +1678,8 @@
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <v>Worgoblin 
+(Patch-G)</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -1703,15 +1697,15 @@
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B27" t="s">
@@ -1724,7 +1718,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B28" t="s">
@@ -1764,8 +1758,8 @@
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -1783,8 +1777,8 @@
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
@@ -1830,7 +1824,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I34:I65" si="1">IF(H34="x",$H$1,IF(G34="x",$G$1,IF(F34="x",$F$1,IF(E34="x",$E$1,IF(D34="x",$D$1,IF(C34="x",$C$1,IF(B34="x",$B$1,"???")))))))</f>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -1846,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -1855,14 +1849,14 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
@@ -1878,9 +1872,9 @@
         <v>8</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Fog Distance
-(PATCH-D)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
@@ -1894,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -1913,23 +1907,23 @@
         <v>8</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Fog Distance
-(PATCH-D)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
@@ -1945,9 +1939,9 @@
         <v>8</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>HD Water 
-(PATCH-W)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
@@ -1967,9 +1961,9 @@
         <v>8</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>HD Login
-(PATCH-C)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
@@ -1983,7 +1977,7 @@
         <v>8</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2002,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>8</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2037,9 +2031,9 @@
         <v>8</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
@@ -2053,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2072,9 +2066,9 @@
         <v>8</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
@@ -2091,9 +2085,9 @@
         <v>8</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
@@ -2110,23 +2104,23 @@
         <v>8</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
@@ -2145,9 +2139,9 @@
         <v>8</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Open Azeroth
-(Patch-5)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
@@ -2157,14 +2151,14 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
@@ -2180,9 +2174,9 @@
         <v>8</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
@@ -2199,9 +2193,9 @@
         <v>8</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
@@ -2215,7 +2209,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2231,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2247,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2263,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2279,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2295,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2314,9 +2308,9 @@
         <v>8</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>HD Characters
-(Patch-6)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J62" t="s">
         <v>8</v>
@@ -2330,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2349,9 +2343,9 @@
         <v>8</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J64" t="s">
         <v>8</v>
@@ -2368,9 +2362,9 @@
         <v>8</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="1"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J65" t="s">
         <v>8</v>
@@ -2384,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I66:I97" si="2">IF(H66="x",$H$1,IF(G66="x",$G$1,IF(F66="x",$F$1,IF(E66="x",$E$1,IF(D66="x",$D$1,IF(C66="x",$C$1,IF(B66="x",$B$1,"???")))))))</f>
         <v>Custom DBC
 (Patch-Z)</v>
       </c>
@@ -2400,88 +2394,88 @@
         <v>8</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f t="shared" ref="I67:I73" si="1">IF(B67="x",$B$1,IF(C67="x",$C$1,IF(D67="x",$D$1,IF(E67="x",$E$1,IF(F67="x",$F$1,IF(G67="x",$G$1,IF(H67="x",$H$1,"???")))))))</f>
-        <v>Worgoblin 
-(Patch-G)</v>
+        <f t="shared" si="2"/>
+        <v>Custom DBC
+(Patch-Z)</v>
       </c>
       <c r="J67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Open Azeroth
 (Patch-5)</v>
       </c>
